--- a/files/temp_import/2020/01/10/考勤报表.xlsx
+++ b/files/temp_import/2020/01/10/考勤报表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">部门</t>
   </si>
@@ -41,6 +41,42 @@
   </si>
   <si>
     <t xml:space="preserve">早退次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">调休</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事假</t>
+  </si>
+  <si>
+    <t xml:space="preserve">病假</t>
+  </si>
+  <si>
+    <t xml:space="preserve">带薪事假</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年假</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旷工</t>
+  </si>
+  <si>
+    <t xml:space="preserve">考勤空白</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哺乳假</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陪产假</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产假</t>
+  </si>
+  <si>
+    <t xml:space="preserve">婚假</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丧假</t>
   </si>
   <si>
     <r>
@@ -48,6 +84,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">IT</t>
     </r>
@@ -56,6 +93,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">部</t>
     </r>
@@ -76,6 +114,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -96,6 +135,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,15 +206,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:G3"/>
+  <dimension ref="A2:S3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -199,13 +239,49 @@
       <c r="G2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>22</v>
